--- a/model.xlsx
+++ b/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28260"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Factor" sheetId="5" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
@@ -2079,54 +2079,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36" style="8" customWidth="1"/>
-    <col min="3" max="12" width="21.5" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="36" style="8" customWidth="1"/>
+    <col min="2" max="11" width="21.5" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32" customHeight="1">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" ht="32" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -2134,36 +2134,32 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="48" customHeight="1">
-      <c r="A2" s="8" t="str">
-        <f>"|"&amp;B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2&amp;"|"</f>
-        <v>|NOI|noi_gbm[1]|noi_gbm[2]|noi_gbm[3]|noi_gbm[4]|noi_gbm[5]|</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="48" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -2171,32 +2167,28 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" ht="45" customHeight="1">
-      <c r="A3" s="8" t="str">
-        <f>"|"&amp;B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3&amp;"|"&amp;G3&amp;"|"</f>
-        <v>|Capex|-0.25||-0.35||-1|</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10">
+      <c r="B3" s="10">
         <v>-0.25</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>-0.35</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>-1</v>
       </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -2204,28 +2196,24 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="45" customHeight="1">
-      <c r="A4" s="8" t="str">
-        <f>"|"&amp;B4&amp;"|"&amp;C4&amp;"|"&amp;D4&amp;"|"&amp;E4&amp;"|"&amp;F4&amp;"|"&amp;G4&amp;"|"</f>
-        <v>|Terminal_value|||||78.9|</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="F4" s="10">
         <v>78.900000000000006</v>
       </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2233,36 +2221,32 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" ht="45" customHeight="1">
-      <c r="A5" s="8" t="str">
-        <f>"|"&amp;B5&amp;"|"&amp;C5&amp;"|"&amp;D5&amp;"|"&amp;E5&amp;"|"&amp;F5&amp;"|"&amp;G5&amp;"|"</f>
-        <v>|Net_result|NOI[1]+Capex[1]|NOI[2]|NOI[3]+Capex[3]|NOI[4]|NOI[5]+Capex[5]+Terminal_value[5]|</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -2270,9 +2254,9 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="45" customHeight="1">
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1">
+      <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2283,7 +2267,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -2291,9 +2275,9 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" ht="45" customHeight="1">
+    </row>
+    <row r="7" spans="1:19" ht="45" customHeight="1">
+      <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2304,7 +2288,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -2312,9 +2296,9 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="45" customHeight="1">
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1">
+      <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2325,7 +2309,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2333,9 +2317,9 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="45" customHeight="1">
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1">
+      <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2346,7 +2330,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2354,9 +2338,9 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" ht="45" customHeight="1">
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1">
+      <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2367,7 +2351,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2375,9 +2359,9 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2396,12 +2380,12 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2419,9 +2403,9 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20">
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2440,9 +2424,9 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2461,9 +2445,9 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2482,9 +2466,9 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2503,9 +2487,9 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="2:20">
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2524,9 +2508,9 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="2:20">
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2545,9 +2529,9 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="2:20">
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2566,9 +2550,9 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="2:20">
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2587,9 +2571,9 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="2:20">
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2608,9 +2592,9 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="2:20">
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2629,9 +2613,9 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="2:20">
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2650,9 +2634,9 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="2:20">
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2671,9 +2655,9 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="2:20">
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2692,9 +2676,9 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="2:20">
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2713,9 +2697,9 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="2:20">
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2734,9 +2718,9 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-    </row>
-    <row r="28" spans="2:20">
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2755,9 +2739,9 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="2:20">
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2776,9 +2760,9 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-    </row>
-    <row r="30" spans="2:20">
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2797,9 +2781,9 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-    </row>
-    <row r="31" spans="2:20">
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2818,9 +2802,9 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-    </row>
-    <row r="32" spans="2:20">
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2839,9 +2823,9 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="2:20">
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2860,9 +2844,9 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="2:20">
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2881,9 +2865,9 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-    </row>
-    <row r="35" spans="2:20">
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2902,9 +2886,9 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-    </row>
-    <row r="36" spans="2:20">
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2923,9 +2907,9 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-    </row>
-    <row r="37" spans="2:20">
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2944,9 +2928,9 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-    </row>
-    <row r="38" spans="2:20">
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2965,9 +2949,9 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-    </row>
-    <row r="39" spans="2:20">
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2986,9 +2970,9 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-    </row>
-    <row r="40" spans="2:20">
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3007,9 +2991,9 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-    </row>
-    <row r="41" spans="2:20">
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3028,9 +3012,9 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-    </row>
-    <row r="42" spans="2:20">
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3049,9 +3033,9 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-    </row>
-    <row r="43" spans="2:20">
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -3070,9 +3054,9 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-    </row>
-    <row r="44" spans="2:20">
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3091,9 +3075,9 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-    </row>
-    <row r="45" spans="2:20">
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -3112,9 +3096,9 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-    </row>
-    <row r="46" spans="2:20">
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -3133,9 +3117,9 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-    </row>
-    <row r="47" spans="2:20">
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3154,9 +3138,9 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-    </row>
-    <row r="48" spans="2:20">
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3175,9 +3159,9 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-    </row>
-    <row r="49" spans="2:20">
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3196,9 +3180,9 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-    </row>
-    <row r="50" spans="2:20">
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3217,9 +3201,9 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-    </row>
-    <row r="51" spans="2:20">
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3238,9 +3222,9 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-    </row>
-    <row r="52" spans="2:20">
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3259,9 +3243,9 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-    </row>
-    <row r="53" spans="2:20">
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3280,9 +3264,9 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-    </row>
-    <row r="54" spans="2:20">
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3301,9 +3285,9 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-    </row>
-    <row r="55" spans="2:20">
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -3322,9 +3306,9 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-    </row>
-    <row r="56" spans="2:20">
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -3343,9 +3327,9 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-    </row>
-    <row r="57" spans="2:20">
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3364,9 +3348,9 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-    </row>
-    <row r="58" spans="2:20">
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3385,9 +3369,9 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-    </row>
-    <row r="59" spans="2:20">
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -3406,9 +3390,9 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-    </row>
-    <row r="60" spans="2:20">
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -3427,7 +3411,6 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4956,9 +4939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>

--- a/model.xlsx
+++ b/model.xlsx
@@ -90,9 +90,6 @@
     <t>discount rate</t>
   </si>
   <si>
-    <t>Statistics</t>
-  </si>
-  <si>
     <t>NOI</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Net_result</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>15</v>
@@ -2137,22 +2137,22 @@
     </row>
     <row r="2" spans="1:19" ht="48" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10">
         <v>-0.25</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2224,22 +2224,22 @@
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4939,7 +4939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
@@ -4976,7 +4978,7 @@
         <v>50000</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
